--- a/data2.xlsx
+++ b/data2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>7月</t>
   </si>
@@ -68,10 +68,19 @@
     <t>D</t>
   </si>
   <si>
+    <t>一田中 太郎 (US)</t>
+  </si>
+  <si>
     <t>田中 太郎子 (SC)</t>
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>二田中 太郎２ (US)</t>
+  </si>
+  <si>
+    <t>三田中 太郎３ (US)</t>
   </si>
   <si>
     <t>田中 太郎 (SC)</t>
@@ -80,7 +89,10 @@
     <t>T</t>
   </si>
   <si>
-    <t>田中 太郎 (Irving)</t>
+    <t>四田中 太郎４ (US)</t>
+  </si>
+  <si>
+    <t>五田中 太郎 (US)</t>
   </si>
   <si>
     <t>n/a</t>
@@ -98,13 +110,22 @@
     <t>D2</t>
   </si>
   <si>
+    <t>六田中 太郎 (US)</t>
+  </si>
+  <si>
     <t>田中 太郎子 (Irving)</t>
+  </si>
+  <si>
+    <t>七田中 太郎 (US)</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
     <t>D1</t>
+  </si>
+  <si>
+    <t>八田中 太郎 (US)</t>
   </si>
   <si>
     <t>\</t>
@@ -173,9 +194,6 @@
     <t>4月</t>
   </si>
   <si>
-    <t>田中太郎子 (Remote)</t>
-  </si>
-  <si>
     <t>2月</t>
   </si>
   <si>
@@ -186,6 +204,12 @@
   </si>
   <si>
     <t>6月</t>
+  </si>
+  <si>
+    <t>田中 太郎 (Irving)</t>
+  </si>
+  <si>
+    <t>田中太郎子 (Remote)</t>
   </si>
 </sst>
 </file>
@@ -2643,14 +2667,14 @@
       <c r="AJ5" s="19"/>
       <c r="AK5" s="15"/>
       <c r="AL5" t="s" s="30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM5" s="31">
         <f>(COUNTA(AN5:BR5)-COUNTIF(AN5:BR5,"リ"))*8</f>
         <v>184</v>
       </c>
       <c r="AN5" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="s" s="33">
         <v>15</v>
@@ -2679,12 +2703,12 @@
         <v>15</v>
       </c>
       <c r="AY5" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ5" s="32"/>
       <c r="BA5" s="32"/>
       <c r="BB5" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC5" t="s" s="33">
         <v>15</v>
@@ -2724,7 +2748,7 @@
         <v>15</v>
       </c>
       <c r="BR5" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS5" s="34">
         <f>COUNTA(AN5:BR5)</f>
@@ -2738,7 +2762,7 @@
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" s="31">
         <f>(COUNTA(C6:AG6)-COUNTIF(C6:AG6,"リ"))*8</f>
@@ -2755,7 +2779,7 @@
       </c>
       <c r="F6" s="32"/>
       <c r="G6" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
@@ -2830,14 +2854,14 @@
       <c r="AJ6" s="19"/>
       <c r="AK6" s="15"/>
       <c r="AL6" t="s" s="30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM6" s="31">
         <f>(COUNTA(AN6:BR6)-COUNTIF(AN6:BR6,"リ"))*8</f>
         <v>184</v>
       </c>
       <c r="AN6" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="s" s="33">
         <v>15</v>
@@ -2905,7 +2929,7 @@
       <c r="BN6" s="32"/>
       <c r="BO6" s="32"/>
       <c r="BP6" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BQ6" t="s" s="36">
         <v>15</v>
@@ -2925,7 +2949,7 @@
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="30">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="31">
         <f>(COUNTA(C7:AG7)-COUNTIF(C7:AG7,"リ"))*8</f>
@@ -2985,13 +3009,13 @@
       <c r="X7" s="32"/>
       <c r="Y7" s="32"/>
       <c r="Z7" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA7" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB7" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC7" t="s" s="36">
         <v>15</v>
@@ -3015,7 +3039,7 @@
       <c r="AJ7" s="19"/>
       <c r="AK7" s="15"/>
       <c r="AL7" t="s" s="30">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AM7" s="31">
         <f>(COUNTA(AN7:BR7)-COUNTIF(AN7:BR7,"リ"))*8</f>
@@ -3076,10 +3100,10 @@
         <v>15</v>
       </c>
       <c r="BJ7" t="s" s="38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BK7" t="s" s="38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BL7" t="s" s="33">
         <v>15</v>
@@ -3110,7 +3134,7 @@
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="30">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B8" s="31">
         <f>(COUNTA(C8:AG8)-COUNTIF(C8:AG8,"リ"))*8</f>
@@ -3214,7 +3238,7 @@
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="30">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B9" s="31">
         <f>(COUNTA(C9:AG9)-COUNTIF(C9:AG9,"リ"))*8</f>
@@ -3222,76 +3246,76 @@
       </c>
       <c r="C9" s="32"/>
       <c r="D9" t="s" s="33">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s" s="33">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" t="s" s="33">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s" s="33">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
       <c r="K9" t="s" s="33">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s" s="33">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s" s="33">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N9" t="s" s="33">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O9" t="s" s="33">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P9" s="32"/>
       <c r="Q9" s="32"/>
       <c r="R9" t="s" s="40">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="S9" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="T9" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U9" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="V9" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="W9" s="32"/>
       <c r="X9" s="32"/>
       <c r="Y9" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Z9" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AA9" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB9" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AC9" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AD9" s="32"/>
       <c r="AE9" s="32"/>
       <c r="AF9" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AG9" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AH9" s="34">
         <f>COUNTA(C9:AG9)</f>
@@ -3304,17 +3328,17 @@
       <c r="AJ9" s="19"/>
       <c r="AK9" s="15"/>
       <c r="AL9" t="s" s="30">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AM9" s="31">
         <f>(COUNTA(AN9:BR9)-COUNTIF(AN9:BR9,"リ"))*8</f>
         <v>184</v>
       </c>
       <c r="AN9" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AP9" t="s" s="33">
         <v>15</v>
@@ -3328,7 +3352,7 @@
         <v>15</v>
       </c>
       <c r="AU9" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AV9" t="s" s="33">
         <v>15</v>
@@ -3345,10 +3369,10 @@
         <v>15</v>
       </c>
       <c r="BB9" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BC9" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BD9" t="s" s="33">
         <v>15</v>
@@ -3359,19 +3383,19 @@
       <c r="BF9" s="32"/>
       <c r="BG9" s="32"/>
       <c r="BH9" t="s" s="40">
+        <v>26</v>
+      </c>
+      <c r="BI9" t="s" s="38">
         <v>22</v>
       </c>
-      <c r="BI9" t="s" s="38">
-        <v>19</v>
-      </c>
       <c r="BJ9" t="s" s="36">
         <v>15</v>
       </c>
       <c r="BK9" t="s" s="38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BL9" t="s" s="40">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BM9" s="32"/>
       <c r="BN9" t="s" s="36">
@@ -3399,7 +3423,7 @@
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="30">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B10" s="31">
         <f>(COUNTA(C10:AG10)-COUNTIF(C10:AG10,"リ"))*8</f>
@@ -3408,73 +3432,73 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
       <c r="K10" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N10" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O10" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="R10" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="S10" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="T10" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U10" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="V10" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="W10" s="32"/>
       <c r="X10" s="32"/>
       <c r="Y10" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Z10" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AA10" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB10" t="s" s="36">
         <v>15</v>
       </c>
       <c r="AC10" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AD10" s="32"/>
       <c r="AE10" s="32"/>
       <c r="AF10" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AG10" t="s" s="33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AH10" s="34">
         <f>COUNTA(C10:AG10)</f>
@@ -3487,7 +3511,7 @@
       <c r="AJ10" s="19"/>
       <c r="AK10" s="15"/>
       <c r="AL10" t="s" s="30">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AM10" s="31">
         <f>(COUNTA(AN10:BR10)-COUNTIF(AN10:BR10,"リ"))*8</f>
@@ -3495,16 +3519,16 @@
       </c>
       <c r="AN10" s="32"/>
       <c r="AO10" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AS10" t="s" s="36">
         <v>15</v>
@@ -3512,7 +3536,7 @@
       <c r="AT10" s="32"/>
       <c r="AU10" s="32"/>
       <c r="AV10" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW10" t="s" s="33">
         <v>15</v>
@@ -3521,7 +3545,7 @@
         <v>15</v>
       </c>
       <c r="AY10" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="s" s="36">
         <v>15</v>
@@ -3529,7 +3553,7 @@
       <c r="BA10" s="32"/>
       <c r="BB10" s="32"/>
       <c r="BC10" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD10" t="s" s="33">
         <v>15</v>
@@ -3544,25 +3568,25 @@
         <v>15</v>
       </c>
       <c r="BH10" t="s" s="40">
+        <v>26</v>
+      </c>
+      <c r="BI10" t="s" s="38">
         <v>22</v>
       </c>
-      <c r="BI10" t="s" s="38">
-        <v>19</v>
-      </c>
       <c r="BJ10" t="s" s="38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BK10" t="s" s="36">
         <v>15</v>
       </c>
       <c r="BL10" t="s" s="40">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BM10" s="32"/>
       <c r="BN10" s="32"/>
       <c r="BO10" s="32"/>
       <c r="BP10" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BQ10" t="s" s="33">
         <v>15</v>
@@ -3582,7 +3606,7 @@
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="30">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B11" s="31">
         <f>(COUNTA(C11:AG11)-COUNTIF(C11:AG11,"リ"))*8</f>
@@ -3590,76 +3614,76 @@
       </c>
       <c r="C11" s="32"/>
       <c r="D11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
       <c r="K11" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="P11" s="32"/>
       <c r="Q11" s="32"/>
       <c r="R11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="S11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="T11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="U11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="V11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="W11" s="32"/>
       <c r="X11" s="32"/>
       <c r="Y11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Z11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AA11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AB11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AC11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AD11" s="32"/>
       <c r="AE11" s="32"/>
       <c r="AF11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AG11" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AH11" s="34">
         <f>COUNTA(C11:AG11)</f>
@@ -3672,31 +3696,31 @@
       <c r="AJ11" s="19"/>
       <c r="AK11" s="15"/>
       <c r="AL11" t="s" s="30">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AM11" s="31">
         <f>(COUNTA(AN11:BR11)-COUNTIF(AN11:BR11,"リ"))*8</f>
         <v>184</v>
       </c>
       <c r="AN11" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AO11" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AP11" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AQ11" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AS11" s="32"/>
       <c r="AT11" s="32"/>
       <c r="AU11" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AV11" t="s" s="33">
         <v>15</v>
@@ -3708,15 +3732,15 @@
         <v>15</v>
       </c>
       <c r="AY11" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AZ11" s="32"/>
       <c r="BA11" s="32"/>
       <c r="BB11" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BC11" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BD11" t="s" s="33">
         <v>15</v>
@@ -3729,19 +3753,19 @@
       </c>
       <c r="BG11" s="32"/>
       <c r="BH11" t="s" s="40">
+        <v>26</v>
+      </c>
+      <c r="BI11" t="s" s="38">
         <v>22</v>
       </c>
-      <c r="BI11" t="s" s="38">
-        <v>19</v>
-      </c>
       <c r="BJ11" t="s" s="38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BK11" t="s" s="38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BL11" t="s" s="40">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BM11" s="32"/>
       <c r="BN11" s="32"/>
@@ -3767,7 +3791,7 @@
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="30">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B12" s="31">
         <f>(COUNTA(C12:AG12)-COUNTIF(C12:AG12,"リ"))*8</f>
@@ -3775,76 +3799,76 @@
       </c>
       <c r="C12" s="32"/>
       <c r="D12" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
       <c r="K12" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="O12" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
       <c r="R12" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="S12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="T12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="U12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="V12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="W12" s="32"/>
       <c r="X12" s="32"/>
       <c r="Y12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Z12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AA12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AB12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AC12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AD12" s="32"/>
       <c r="AE12" s="32"/>
       <c r="AF12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AG12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AH12" s="34">
         <f>COUNTA(C12:AG12)</f>
@@ -3857,88 +3881,88 @@
       <c r="AJ12" s="19"/>
       <c r="AK12" s="15"/>
       <c r="AL12" t="s" s="30">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AM12" s="31">
         <f>(COUNTA(AN12:BR12)-COUNTIF(AN12:BR12,"リ"))*8</f>
         <v>184</v>
       </c>
       <c r="AN12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AO12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AP12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AQ12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AR12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AS12" s="32"/>
       <c r="AT12" s="32"/>
       <c r="AU12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AV12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AW12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AX12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AY12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AZ12" s="32"/>
       <c r="BA12" s="32"/>
       <c r="BB12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="BC12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="BD12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="BE12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="BF12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="BG12" s="32"/>
       <c r="BH12" t="s" s="40">
+        <v>26</v>
+      </c>
+      <c r="BI12" t="s" s="38">
         <v>22</v>
       </c>
-      <c r="BI12" t="s" s="38">
-        <v>19</v>
-      </c>
       <c r="BJ12" t="s" s="38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BK12" t="s" s="38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BL12" t="s" s="40">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BM12" s="32"/>
       <c r="BN12" s="32"/>
       <c r="BO12" s="32"/>
       <c r="BP12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="BQ12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="BR12" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="BS12" s="34">
         <f>COUNTA(AN12:BR12)</f>
@@ -4106,7 +4130,7 @@
     <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" t="s" s="3">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4145,7 +4169,7 @@
       <c r="AK15" s="7"/>
       <c r="AL15" s="5"/>
       <c r="AM15" t="s" s="3">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AN15" s="4"/>
       <c r="AO15" s="4"/>
@@ -4788,13 +4812,13 @@
         <v>176</v>
       </c>
       <c r="C19" t="s" s="40">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s" s="38">
         <v>22</v>
       </c>
-      <c r="D19" t="s" s="38">
-        <v>19</v>
-      </c>
       <c r="E19" t="s" s="40">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
@@ -4825,10 +4849,10 @@
         <v>15</v>
       </c>
       <c r="R19" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S19" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T19" s="32"/>
       <c r="U19" s="32"/>
@@ -4960,7 +4984,7 @@
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="s" s="30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20" s="31">
         <f>(COUNTA(C20:AG20)-COUNTIF(C20:AG20,"リ"))*8</f>
@@ -5021,7 +5045,7 @@
         <v>15</v>
       </c>
       <c r="Y20" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z20" s="32"/>
       <c r="AA20" s="32"/>
@@ -5038,7 +5062,7 @@
         <v>15</v>
       </c>
       <c r="AF20" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG20" s="32"/>
       <c r="AH20" s="34">
@@ -5052,7 +5076,7 @@
       <c r="AJ20" s="19"/>
       <c r="AK20" s="15"/>
       <c r="AL20" t="s" s="30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AM20" s="31">
         <f>(COUNTA(AN20:BR20)-COUNTIF(AN20:BR20,"リ"))*8</f>
@@ -5101,13 +5125,13 @@
       <c r="BD20" s="32"/>
       <c r="BE20" s="32"/>
       <c r="BF20" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BG20" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BH20" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI20" s="32"/>
       <c r="BJ20" s="32"/>
@@ -5139,7 +5163,7 @@
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="s" s="30">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="31">
         <f>(COUNTA(C21:AG21)-COUNTIF(C21:AG21,"リ"))*8</f>
@@ -5231,7 +5255,7 @@
       <c r="AJ21" s="19"/>
       <c r="AK21" s="15"/>
       <c r="AL21" t="s" s="30">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AM21" s="31">
         <f>(COUNTA(AN21:BR21)-COUNTIF(AN21:BR21,"リ"))*8</f>
@@ -5296,16 +5320,16 @@
       <c r="BL21" s="32"/>
       <c r="BM21" s="32"/>
       <c r="BN21" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BO21" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP21" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BQ21" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BR21" s="19"/>
       <c r="BS21" s="34">
@@ -5404,7 +5428,7 @@
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="s" s="30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="31">
         <f>(COUNTA(C23:AG23)-COUNTIF(C23:AG23,"リ"))*8</f>
@@ -5422,19 +5446,19 @@
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
       <c r="H23" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J23" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L23" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
@@ -5473,7 +5497,7 @@
       <c r="AA23" s="32"/>
       <c r="AB23" s="32"/>
       <c r="AC23" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD23" t="s" s="36">
         <v>15</v>
@@ -5498,7 +5522,7 @@
       <c r="AJ23" s="19"/>
       <c r="AK23" s="15"/>
       <c r="AL23" t="s" s="30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM23" s="31">
         <f>(COUNTA(AN23:BR23)-COUNTIF(AN23:BR23,"リ"))*8</f>
@@ -5516,10 +5540,10 @@
         <v>15</v>
       </c>
       <c r="AS23" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AT23" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AU23" t="s" s="33">
         <v>15</v>
@@ -5533,7 +5557,7 @@
         <v>15</v>
       </c>
       <c r="AZ23" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BA23" t="s" s="33">
         <v>15</v>
@@ -5547,13 +5571,13 @@
         <v>15</v>
       </c>
       <c r="BF23" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BG23" t="s" s="33">
         <v>15</v>
       </c>
       <c r="BH23" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BI23" t="s" s="33">
         <v>15</v>
@@ -5567,7 +5591,7 @@
         <v>15</v>
       </c>
       <c r="BN23" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BO23" s="32"/>
       <c r="BP23" s="32"/>
@@ -5585,7 +5609,7 @@
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="s" s="30">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="31">
         <f>(COUNTA(C24:AG24)-COUNTIF(C24:AG24,"リ"))*8</f>
@@ -5603,19 +5627,19 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I24" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J24" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K24" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L24" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M24" s="32"/>
       <c r="N24" s="32"/>
@@ -5679,7 +5703,7 @@
       <c r="AJ24" s="19"/>
       <c r="AK24" s="15"/>
       <c r="AL24" t="s" s="30">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM24" s="31">
         <f>(COUNTA(AN24:BR24)-COUNTIF(AN24:BR24,"リ"))*8</f>
@@ -5689,48 +5713,48 @@
         <v>15</v>
       </c>
       <c r="AO24" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AP24" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AQ24" s="32"/>
       <c r="AR24" s="32"/>
       <c r="AS24" s="32"/>
       <c r="AT24" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU24" t="s" s="40">
+        <v>26</v>
+      </c>
+      <c r="AV24" t="s" s="38">
         <v>22</v>
       </c>
-      <c r="AV24" t="s" s="38">
-        <v>19</v>
-      </c>
       <c r="AW24" t="s" s="38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AX24" t="s" s="40">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AY24" s="32"/>
       <c r="AZ24" s="32"/>
       <c r="BA24" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BB24" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BC24" t="s" s="33">
         <v>15</v>
       </c>
       <c r="BD24" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BE24" s="32"/>
       <c r="BF24" s="32"/>
       <c r="BG24" s="32"/>
       <c r="BH24" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI24" t="s" s="33">
         <v>15</v>
@@ -5744,16 +5768,16 @@
       <c r="BL24" s="32"/>
       <c r="BM24" s="32"/>
       <c r="BN24" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BO24" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP24" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BQ24" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BR24" s="19"/>
       <c r="BS24" s="34">
@@ -5768,7 +5792,7 @@
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="s" s="30">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B25" s="31">
         <f>(COUNTA(C25:AG25)-COUNTIF(C25:AG25,"リ"))*8</f>
@@ -5838,7 +5862,7 @@
       <c r="AJ25" s="19"/>
       <c r="AK25" s="15"/>
       <c r="AL25" t="s" s="30">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AM25" s="31">
         <f>(COUNTA(AN25:BR25)-COUNTIF(AN25:BR25,"リ"))*8</f>
@@ -5848,18 +5872,18 @@
         <v>15</v>
       </c>
       <c r="AO25" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AP25" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AQ25" s="32"/>
       <c r="AR25" s="32"/>
       <c r="AS25" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AT25" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AU25" t="s" s="33">
         <v>15</v>
@@ -5873,19 +5897,19 @@
       <c r="AX25" s="32"/>
       <c r="AY25" s="32"/>
       <c r="AZ25" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BA25" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BB25" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BC25" t="s" s="33">
         <v>15</v>
       </c>
       <c r="BD25" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BE25" s="32"/>
       <c r="BF25" s="32"/>
@@ -5925,88 +5949,88 @@
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="s" s="30">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B26" s="31">
         <f>(COUNTA(C26:AG26)-COUNTIF(C26:AG26,"リ"))*8</f>
         <v>184</v>
       </c>
       <c r="C26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M26" s="32"/>
       <c r="N26" s="32"/>
       <c r="O26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="P26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="S26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="T26" s="32"/>
       <c r="U26" s="32"/>
       <c r="V26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="W26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="X26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Y26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Z26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AA26" s="32"/>
       <c r="AB26" s="32"/>
       <c r="AC26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AD26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AE26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AF26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AG26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AH26" s="34">
         <f>COUNTA(C26:AG26)</f>
@@ -6019,72 +6043,72 @@
       <c r="AJ26" s="19"/>
       <c r="AK26" s="15"/>
       <c r="AL26" t="s" s="30">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AM26" s="31">
         <f>(COUNTA(AN26:BR26)-COUNTIF(AN26:BR26,"リ"))*8</f>
         <v>160</v>
       </c>
       <c r="AN26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AO26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AP26" s="32"/>
       <c r="AQ26" s="32"/>
       <c r="AR26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AS26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AT26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AU26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AV26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AW26" s="32"/>
       <c r="AX26" s="32"/>
       <c r="AY26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AZ26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="BA26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="BB26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="BC26" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="BD26" s="32"/>
       <c r="BE26" s="32"/>
       <c r="BF26" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BG26" t="s" s="33">
         <v>15</v>
       </c>
       <c r="BH26" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BI26" s="32"/>
       <c r="BJ26" s="32"/>
       <c r="BK26" s="32"/>
       <c r="BL26" s="32"/>
       <c r="BM26" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BN26" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BO26" t="s" s="33">
         <v>15</v>
@@ -6108,88 +6132,88 @@
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="s" s="30">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B27" s="31">
         <f>(COUNTA(C27:AG27)-COUNTIF(C27:AG27,"リ"))*8</f>
         <v>184</v>
       </c>
       <c r="C27" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I27" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J27" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K27" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L27" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M27" s="32"/>
       <c r="N27" s="32"/>
       <c r="O27" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="P27" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q27" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R27" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="S27" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="T27" s="32"/>
       <c r="U27" s="32"/>
       <c r="V27" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="W27" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="X27" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Y27" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Z27" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AA27" s="32"/>
       <c r="AB27" s="32"/>
       <c r="AC27" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AD27" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AE27" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AF27" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AG27" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AH27" s="34">
         <f>COUNTA(C27:AG27)</f>
@@ -6281,7 +6305,7 @@
       <c r="AN28" s="41"/>
       <c r="AO28" s="41"/>
       <c r="AP28" t="s" s="44">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AQ28" s="41"/>
       <c r="AR28" s="41"/>
@@ -6318,7 +6342,7 @@
     <row r="29" ht="19.5" customHeight="1">
       <c r="A29" s="5"/>
       <c r="B29" t="s" s="3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -6357,7 +6381,7 @@
       <c r="AK29" s="7"/>
       <c r="AL29" s="5"/>
       <c r="AM29" t="s" s="3">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN29" s="4"/>
       <c r="AO29" s="4"/>
@@ -7029,16 +7053,16 @@
         <v>15</v>
       </c>
       <c r="T33" t="s" s="40">
+        <v>26</v>
+      </c>
+      <c r="U33" t="s" s="38">
         <v>22</v>
       </c>
-      <c r="U33" t="s" s="38">
-        <v>19</v>
-      </c>
       <c r="V33" t="s" s="40">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="W33" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X33" s="32"/>
       <c r="Y33" s="32"/>
@@ -7114,7 +7138,7 @@
       <c r="BB33" s="32"/>
       <c r="BC33" s="32"/>
       <c r="BD33" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BE33" t="s" s="33">
         <v>15</v>
@@ -7133,18 +7157,18 @@
       <c r="BK33" s="32"/>
       <c r="BL33" s="32"/>
       <c r="BM33" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BN33" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BO33" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP33" s="32"/>
       <c r="BQ33" s="32"/>
       <c r="BR33" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS33" s="34">
         <f>COUNTA(AN33:BR33)</f>
@@ -7158,7 +7182,7 @@
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="s" s="30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B34" s="31">
         <f>(COUNTA(C34:AG34)-COUNTIF(C34:AG34,"リ"))*8</f>
@@ -7213,7 +7237,7 @@
         <v>15</v>
       </c>
       <c r="W34" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X34" s="32"/>
       <c r="Y34" s="32"/>
@@ -7246,7 +7270,7 @@
       <c r="AJ34" s="19"/>
       <c r="AK34" s="15"/>
       <c r="AL34" t="s" s="30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AM34" s="31">
         <f>(COUNTA(AN34:BR34)-COUNTIF(AN34:BR34,"リ"))*8</f>
@@ -7301,7 +7325,7 @@
         <v>15</v>
       </c>
       <c r="BH34" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI34" s="32"/>
       <c r="BJ34" s="32"/>
@@ -7333,7 +7357,7 @@
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="s" s="30">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B35" s="31">
         <f>(COUNTA(C35:AG35)-COUNTIF(C35:AG35,"リ"))*8</f>
@@ -7421,7 +7445,7 @@
       <c r="AJ35" s="19"/>
       <c r="AK35" s="15"/>
       <c r="AL35" t="s" s="30">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AM35" s="31">
         <f>(COUNTA(AN35:BR35)-COUNTIF(AN35:BR35,"リ"))*8</f>
@@ -7586,7 +7610,7 @@
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="s" s="30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="31">
         <f>(COUNTA(C37:AG37)-COUNTIF(C37:AG37,"リ"))*8</f>
@@ -7672,7 +7696,7 @@
       <c r="AJ37" s="19"/>
       <c r="AK37" s="15"/>
       <c r="AL37" t="s" s="30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM37" s="31">
         <f>(COUNTA(AN37:BR37)-COUNTIF(AN37:BR37,"リ"))*8</f>
@@ -7701,13 +7725,13 @@
         <v>15</v>
       </c>
       <c r="AX37" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AY37" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AZ37" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BA37" s="32"/>
       <c r="BB37" s="32"/>
@@ -7715,10 +7739,10 @@
         <v>15</v>
       </c>
       <c r="BD37" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BE37" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BF37" t="s" s="33">
         <v>15</v>
@@ -7735,7 +7759,7 @@
         <v>15</v>
       </c>
       <c r="BL37" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BM37" t="s" s="33">
         <v>15</v>
@@ -7761,7 +7785,7 @@
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="s" s="30">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B38" s="31">
         <f>(COUNTA(C38:AG38)-COUNTIF(C38:AG38,"リ"))*8</f>
@@ -7847,7 +7871,7 @@
       <c r="AJ38" s="19"/>
       <c r="AK38" s="15"/>
       <c r="AL38" t="s" s="30">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM38" s="31">
         <f>(COUNTA(AN38:BR38)-COUNTIF(AN38:BR38,"リ"))*8</f>
@@ -7856,33 +7880,33 @@
       <c r="AN38" s="32"/>
       <c r="AO38" s="32"/>
       <c r="AP38" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ38" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR38" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS38" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT38" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU38" s="32"/>
       <c r="AV38" s="32"/>
       <c r="AW38" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX38" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY38" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ38" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA38" t="s" s="33">
         <v>15</v>
@@ -7936,7 +7960,7 @@
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="s" s="30">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B39" s="31">
         <f>(COUNTA(C39:AG39)-COUNTIF(C39:AG39,"リ"))*8</f>
@@ -7946,7 +7970,7 @@
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
       <c r="F39" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s" s="33">
         <v>15</v>
@@ -8022,7 +8046,7 @@
       <c r="AJ39" s="19"/>
       <c r="AK39" s="15"/>
       <c r="AL39" t="s" s="30">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AM39" s="31">
         <f>(COUNTA(AN39:BR39)-COUNTIF(AN39:BR39,"リ"))*8</f>
@@ -8111,7 +8135,7 @@
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="s" s="30">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B40" s="31">
         <f>(COUNTA(C40:AG40)-COUNTIF(C40:AG40,"リ"))*8</f>
@@ -8121,67 +8145,67 @@
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
       <c r="F40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J40" s="32"/>
       <c r="K40" s="32"/>
       <c r="L40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="P40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q40" s="32"/>
       <c r="R40" s="32"/>
       <c r="S40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="T40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="U40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="V40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="W40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="X40" s="32"/>
       <c r="Y40" s="32"/>
       <c r="Z40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AA40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AB40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AC40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AD40" t="s" s="33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AE40" s="32"/>
       <c r="AF40" s="32"/>
@@ -8197,7 +8221,7 @@
       <c r="AJ40" s="19"/>
       <c r="AK40" s="15"/>
       <c r="AL40" t="s" s="30">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AM40" s="31">
         <f>(COUNTA(AN40:BR40)-COUNTIF(AN40:BR40,"リ"))*8</f>
@@ -8226,13 +8250,13 @@
         <v>15</v>
       </c>
       <c r="AX40" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AY40" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AZ40" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BA40" t="s" s="33">
         <v>15</v>
@@ -8240,10 +8264,10 @@
       <c r="BB40" s="32"/>
       <c r="BC40" s="32"/>
       <c r="BD40" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BE40" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BF40" t="s" s="33">
         <v>15</v>
@@ -8258,7 +8282,7 @@
       <c r="BJ40" s="32"/>
       <c r="BK40" s="32"/>
       <c r="BL40" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BM40" t="s" s="33">
         <v>15</v>
@@ -8438,7 +8462,7 @@
       <c r="C43" s="46"/>
       <c r="D43" s="47"/>
       <c r="E43" t="s" s="48">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F43" s="49"/>
       <c r="G43" s="49"/>
@@ -8473,14 +8497,14 @@
       <c r="AJ43" s="7"/>
       <c r="AK43" s="46"/>
       <c r="AL43" t="s" s="16">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AM43" t="s" s="50">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AN43" s="51"/>
       <c r="AO43" t="s" s="50">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AP43" s="52"/>
       <c r="AQ43" s="51"/>
@@ -8499,7 +8523,7 @@
       <c r="BD43" s="46"/>
       <c r="BE43" s="47"/>
       <c r="BF43" t="s" s="48">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="BG43" s="49"/>
       <c r="BH43" s="49"/>
@@ -8522,14 +8546,14 @@
       <c r="B44" s="7"/>
       <c r="C44" s="46"/>
       <c r="D44" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s" s="48">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" t="s" s="54">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -8587,14 +8611,14 @@
       <c r="BC44" s="7"/>
       <c r="BD44" s="46"/>
       <c r="BE44" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BF44" t="s" s="48">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="BG44" s="7"/>
       <c r="BH44" t="s" s="54">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="BI44" s="7"/>
       <c r="BJ44" s="7"/>
@@ -8615,10 +8639,10 @@
       <c r="B45" s="7"/>
       <c r="C45" s="46"/>
       <c r="D45" t="s" s="60">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s" s="48">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -8653,7 +8677,7 @@
       <c r="AJ45" s="7"/>
       <c r="AK45" s="46"/>
       <c r="AL45" t="s" s="30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM45" s="55">
         <f>AH5+AH19+AH33+BS5+BS19+BS33</f>
@@ -8680,10 +8704,10 @@
       <c r="BC45" s="7"/>
       <c r="BD45" s="46"/>
       <c r="BE45" t="s" s="60">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="BF45" t="s" s="48">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="BG45" s="7"/>
       <c r="BH45" s="7"/>
@@ -8706,10 +8730,10 @@
       <c r="B46" s="7"/>
       <c r="C46" s="46"/>
       <c r="D46" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E46" t="s" s="48">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -8744,7 +8768,7 @@
       <c r="AJ46" s="7"/>
       <c r="AK46" s="46"/>
       <c r="AL46" t="s" s="30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM46" s="55">
         <f>AH6+AH20+AH34+BS6+BS20+BS34</f>
@@ -8771,10 +8795,10 @@
       <c r="BC46" s="7"/>
       <c r="BD46" s="46"/>
       <c r="BE46" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="BF46" t="s" s="48">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="BG46" s="7"/>
       <c r="BH46" s="7"/>
@@ -8797,10 +8821,10 @@
       <c r="B47" s="7"/>
       <c r="C47" s="46"/>
       <c r="D47" t="s" s="40">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E47" t="s" s="48">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -8835,7 +8859,7 @@
       <c r="AJ47" s="7"/>
       <c r="AK47" s="46"/>
       <c r="AL47" t="s" s="30">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AM47" s="55">
         <f>AH7+BS7+AH35+AH21+BS21+BS35</f>
@@ -8862,10 +8886,10 @@
       <c r="BC47" s="7"/>
       <c r="BD47" s="46"/>
       <c r="BE47" t="s" s="40">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BF47" t="s" s="48">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="BG47" s="7"/>
       <c r="BH47" s="7"/>
@@ -8888,10 +8912,10 @@
       <c r="B48" s="7"/>
       <c r="C48" s="62"/>
       <c r="D48" t="s" s="38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s" s="48">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -8926,7 +8950,7 @@
       <c r="AJ48" s="7"/>
       <c r="AK48" s="46"/>
       <c r="AL48" t="s" s="30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM48" s="55">
         <f>AH8+AH22+AH36+BS8+BS22+BS36</f>
@@ -8953,10 +8977,10 @@
       <c r="BC48" s="7"/>
       <c r="BD48" s="46"/>
       <c r="BE48" t="s" s="38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BF48" t="s" s="48">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="BG48" s="7"/>
       <c r="BH48" s="7"/>
@@ -8978,13 +9002,13 @@
       <c r="A49" s="7"/>
       <c r="B49" s="46"/>
       <c r="C49" t="s" s="63">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s" s="36">
         <v>15</v>
       </c>
       <c r="E49" t="s" s="48">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -9019,7 +9043,7 @@
       <c r="AJ49" s="7"/>
       <c r="AK49" s="46"/>
       <c r="AL49" t="s" s="30">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AM49" s="55">
         <f>AH9+AH23+AH37+BS9+BS23+BS37</f>
@@ -9049,7 +9073,7 @@
         <v>15</v>
       </c>
       <c r="BF49" t="s" s="48">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="BG49" s="7"/>
       <c r="BH49" s="7"/>
@@ -9072,10 +9096,10 @@
       <c r="B50" s="7"/>
       <c r="C50" s="64"/>
       <c r="D50" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s" s="48">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -9110,7 +9134,7 @@
       <c r="AJ50" s="7"/>
       <c r="AK50" s="46"/>
       <c r="AL50" t="s" s="30">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AM50" s="55">
         <f>AH10+AH24+AH38+BS10+BS24+BS38</f>
@@ -9137,10 +9161,10 @@
       <c r="BC50" s="7"/>
       <c r="BD50" s="46"/>
       <c r="BE50" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BF50" t="s" s="48">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="BG50" s="7"/>
       <c r="BH50" s="7"/>
@@ -9163,10 +9187,10 @@
       <c r="B51" s="7"/>
       <c r="C51" s="46"/>
       <c r="D51" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E51" t="s" s="48">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -9201,7 +9225,7 @@
       <c r="AJ51" s="7"/>
       <c r="AK51" s="46"/>
       <c r="AL51" t="s" s="30">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AM51" s="55">
         <f>AH11+AH25+BS11+BS25</f>
@@ -9228,10 +9252,10 @@
       <c r="BC51" s="7"/>
       <c r="BD51" s="46"/>
       <c r="BE51" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BF51" t="s" s="48">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="BG51" s="7"/>
       <c r="BH51" s="7"/>
@@ -9288,7 +9312,7 @@
       <c r="AJ52" s="7"/>
       <c r="AK52" s="46"/>
       <c r="AL52" t="s" s="30">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AM52" s="55">
         <f>AH12+AH26+AH39+BS11+BS25+BS39</f>
@@ -9371,7 +9395,7 @@
       <c r="AJ53" s="7"/>
       <c r="AK53" s="46"/>
       <c r="AL53" t="s" s="30">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AM53" s="55">
         <f>AH13+AH27+AH40+BS12+BS26+BS40</f>
@@ -9492,67 +9516,67 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="AM50:AN50"/>
+    <mergeCell ref="AO51:AQ51"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL30:AL31"/>
+    <mergeCell ref="AM49:AN49"/>
+    <mergeCell ref="AO52:AQ52"/>
+    <mergeCell ref="AM46:AN46"/>
+    <mergeCell ref="AO48:AQ48"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="AO49:AQ49"/>
+    <mergeCell ref="AM30:AM31"/>
+    <mergeCell ref="AM53:AN53"/>
+    <mergeCell ref="AO45:AQ45"/>
+    <mergeCell ref="AL43:AL44"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="BU30:BU31"/>
+    <mergeCell ref="BT30:BT31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="B15:AG15"/>
+    <mergeCell ref="AO53:AQ53"/>
+    <mergeCell ref="BS30:BS31"/>
+    <mergeCell ref="AI30:AI31"/>
+    <mergeCell ref="BU16:BU17"/>
+    <mergeCell ref="AO47:AQ47"/>
+    <mergeCell ref="AM54:AN54"/>
+    <mergeCell ref="AO46:AQ46"/>
+    <mergeCell ref="BT16:BT17"/>
+    <mergeCell ref="AM51:AN51"/>
+    <mergeCell ref="AO43:AQ43"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="B1:AG1"/>
+    <mergeCell ref="BS16:BS17"/>
+    <mergeCell ref="AM47:AN47"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="AM16:AM17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="AH16:AH17"/>
+    <mergeCell ref="AM43:AN43"/>
+    <mergeCell ref="BT2:BT3"/>
+    <mergeCell ref="B29:AG29"/>
+    <mergeCell ref="AM29:BR29"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AM15:BR15"/>
+    <mergeCell ref="AO54:AQ54"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="AO50:AQ50"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="AM52:AN52"/>
+    <mergeCell ref="AO44:AQ44"/>
     <mergeCell ref="AM1:BR1"/>
-    <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="AM15:BR15"/>
     <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="AL2:AL3"/>
     <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="AO50:AQ50"/>
-    <mergeCell ref="AO44:AQ44"/>
-    <mergeCell ref="AM52:AN52"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="AO54:AQ54"/>
-    <mergeCell ref="AM29:BR29"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AH16:AH17"/>
-    <mergeCell ref="AM43:AN43"/>
-    <mergeCell ref="B29:AG29"/>
-    <mergeCell ref="BT2:BT3"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AM16:AM17"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="BS16:BS17"/>
-    <mergeCell ref="AM47:AN47"/>
-    <mergeCell ref="B1:AG1"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AO43:AQ43"/>
-    <mergeCell ref="AM51:AN51"/>
-    <mergeCell ref="BT16:BT17"/>
-    <mergeCell ref="AO46:AQ46"/>
-    <mergeCell ref="AM54:AN54"/>
-    <mergeCell ref="AO47:AQ47"/>
-    <mergeCell ref="BU16:BU17"/>
-    <mergeCell ref="AO53:AQ53"/>
-    <mergeCell ref="BS30:BS31"/>
-    <mergeCell ref="B15:AG15"/>
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="AI30:AI31"/>
-    <mergeCell ref="BT30:BT31"/>
-    <mergeCell ref="BU30:BU31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="AL43:AL44"/>
-    <mergeCell ref="AO45:AQ45"/>
-    <mergeCell ref="AM53:AN53"/>
-    <mergeCell ref="AM30:AM31"/>
-    <mergeCell ref="AO49:AQ49"/>
-    <mergeCell ref="AH30:AH31"/>
-    <mergeCell ref="AO48:AQ48"/>
-    <mergeCell ref="AM46:AN46"/>
-    <mergeCell ref="AO52:AQ52"/>
-    <mergeCell ref="AM49:AN49"/>
-    <mergeCell ref="AL30:AL31"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AO51:AQ51"/>
-    <mergeCell ref="AM50:AN50"/>
+    <mergeCell ref="AJ2:AJ3"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B13 AM4:AM13 B18:B27 AM18:AM27 B32:B41 AM32:AM41">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan" stopIfTrue="1">
@@ -9595,7 +9619,7 @@
     <row r="1" ht="19.5" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" t="s" s="3">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -9634,7 +9658,7 @@
       <c r="AK1" s="7"/>
       <c r="AL1" s="2"/>
       <c r="AM1" t="s" s="3">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="4"/>
       <c r="AO1" s="4"/>
@@ -10280,13 +10304,13 @@
       </c>
       <c r="C5" s="32"/>
       <c r="D5" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
@@ -10320,7 +10344,7 @@
         <v>15</v>
       </c>
       <c r="T5" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U5" s="32"/>
       <c r="V5" s="32"/>
@@ -10405,19 +10429,19 @@
       <c r="AZ5" s="32"/>
       <c r="BA5" s="32"/>
       <c r="BB5" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC5" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BE5" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BF5" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BG5" s="32"/>
       <c r="BH5" s="32"/>
@@ -10457,7 +10481,7 @@
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" s="31">
         <f>(COUNTA(C6:AG6)-COUNTIF(C6:AG6,"リ"))*8</f>
@@ -10471,15 +10495,15 @@
         <v>15</v>
       </c>
       <c r="F6" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
       <c r="I6" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s" s="33">
         <v>15</v>
@@ -10513,13 +10537,13 @@
         <v>15</v>
       </c>
       <c r="X6" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="s" s="33">
         <v>15</v>
@@ -10530,13 +10554,13 @@
         <v>15</v>
       </c>
       <c r="AE6" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AH6" s="34">
         <f>COUNTA(C6:AG6)</f>
@@ -10549,7 +10573,7 @@
       <c r="AJ6" s="19"/>
       <c r="AK6" s="15"/>
       <c r="AL6" t="s" s="30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AM6" s="31">
         <f>(COUNTA(AN6:BR6)-COUNTIF(AN6:BR6,"リ"))*8</f>
@@ -10577,47 +10601,47 @@
         <v>15</v>
       </c>
       <c r="AW6" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX6" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY6" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ6" s="32"/>
       <c r="BA6" s="32"/>
       <c r="BB6" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC6" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD6" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BE6" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BF6" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BG6" s="32"/>
       <c r="BH6" s="32"/>
       <c r="BI6" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BJ6" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BK6" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BL6" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BM6" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BN6" s="32"/>
       <c r="BO6" s="32"/>
@@ -10650,30 +10674,30 @@
         <v>15</v>
       </c>
       <c r="D7" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N7" s="32"/>
       <c r="O7" s="32"/>
@@ -10755,7 +10779,7 @@
       <c r="AR7" s="32"/>
       <c r="AS7" s="32"/>
       <c r="AT7" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AU7" t="s" s="33">
         <v>15</v>
@@ -10772,7 +10796,7 @@
       <c r="AY7" s="32"/>
       <c r="AZ7" s="32"/>
       <c r="BA7" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BB7" t="s" s="33">
         <v>15</v>
@@ -10789,7 +10813,7 @@
       <c r="BF7" s="32"/>
       <c r="BG7" s="32"/>
       <c r="BH7" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BI7" t="s" s="33">
         <v>15</v>
@@ -10806,7 +10830,7 @@
       <c r="BM7" s="32"/>
       <c r="BN7" s="32"/>
       <c r="BO7" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BP7" t="s" s="33">
         <v>15</v>
@@ -10827,7 +10851,7 @@
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="31">
         <f>(COUNTA(C8:AG8)-COUNTIF(C8:AG8,"リ"))*8</f>
@@ -10838,7 +10862,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s" s="33">
         <v>15</v>
@@ -10852,10 +10876,10 @@
         <v>15</v>
       </c>
       <c r="K8" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M8" t="s" s="33">
         <v>15</v>
@@ -10866,13 +10890,13 @@
       <c r="O8" s="32"/>
       <c r="P8" s="32"/>
       <c r="Q8" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R8" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S8" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="T8" t="s" s="33">
         <v>15</v>
@@ -10919,7 +10943,7 @@
       <c r="AJ8" s="19"/>
       <c r="AK8" s="15"/>
       <c r="AL8" t="s" s="30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM8" s="31">
         <f>(COUNTA(AN8:BR8)-COUNTIF(AN8:BR8,"リ"))*8</f>
@@ -11021,7 +11045,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s" s="33">
         <v>15</v>
@@ -11029,10 +11053,10 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s" s="33">
         <v>15</v>
@@ -11055,7 +11079,7 @@
         <v>15</v>
       </c>
       <c r="S9" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="T9" t="s" s="33">
         <v>15</v>
@@ -11066,10 +11090,10 @@
         <v>15</v>
       </c>
       <c r="X9" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="s" s="33">
         <v>15</v>
@@ -11089,7 +11113,7 @@
         <v>15</v>
       </c>
       <c r="AG9" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AH9" s="34">
         <f>COUNTA(C9:AG9)</f>
@@ -11193,7 +11217,7 @@
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="30">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B10" s="31">
         <f>(COUNTA(C10:AG10)-COUNTIF(C10:AG10,"リ"))*8</f>
@@ -11207,7 +11231,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
@@ -11218,10 +11242,10 @@
         <v>15</v>
       </c>
       <c r="K10" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M10" t="s" s="33">
         <v>15</v>
@@ -11232,10 +11256,10 @@
         <v>15</v>
       </c>
       <c r="Q10" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="R10" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="S10" t="s" s="33">
         <v>15</v>
@@ -11255,7 +11279,7 @@
         <v>15</v>
       </c>
       <c r="Z10" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="s" s="33">
         <v>15</v>
@@ -11266,10 +11290,10 @@
         <v>15</v>
       </c>
       <c r="AE10" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="s" s="33">
         <v>15</v>
@@ -11285,7 +11309,7 @@
       <c r="AJ10" s="19"/>
       <c r="AK10" s="15"/>
       <c r="AL10" t="s" s="30">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AM10" s="31">
         <f>(COUNTA(AN10:BR10)-COUNTIF(AN10:BR10,"リ"))*8</f>
@@ -11376,7 +11400,7 @@
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="30">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B11" s="31">
         <f>(COUNTA(C11:AG11)-COUNTIF(C11:AG11,"リ"))*8</f>
@@ -11384,64 +11408,64 @@
       </c>
       <c r="C11" s="32"/>
       <c r="D11" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
       <c r="I11" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K11" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M11" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
       <c r="P11" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q11" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R11" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="S11" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="T11" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="U11" s="32"/>
       <c r="V11" s="32"/>
       <c r="W11" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="X11" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Y11" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Z11" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AA11" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AB11" s="32"/>
       <c r="AC11" s="32"/>
@@ -11468,7 +11492,7 @@
       <c r="AJ11" s="19"/>
       <c r="AK11" s="15"/>
       <c r="AL11" t="s" s="30">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AM11" s="31">
         <f>(COUNTA(AN11:BR11)-COUNTIF(AN11:BR11,"リ"))*8</f>
@@ -11489,7 +11513,7 @@
       <c r="AR11" s="32"/>
       <c r="AS11" s="32"/>
       <c r="AT11" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AU11" t="s" s="33">
         <v>15</v>
@@ -11506,7 +11530,7 @@
       <c r="AY11" s="32"/>
       <c r="AZ11" s="32"/>
       <c r="BA11" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BB11" t="s" s="33">
         <v>15</v>
@@ -11523,7 +11547,7 @@
       <c r="BF11" s="32"/>
       <c r="BG11" s="32"/>
       <c r="BH11" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BI11" t="s" s="33">
         <v>15</v>
@@ -11540,7 +11564,7 @@
       <c r="BM11" s="32"/>
       <c r="BN11" s="32"/>
       <c r="BO11" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BP11" t="s" s="33">
         <v>15</v>
@@ -11637,7 +11661,7 @@
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" t="s" s="3">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -11676,7 +11700,7 @@
       <c r="AK13" s="7"/>
       <c r="AL13" s="5"/>
       <c r="AM13" t="s" s="3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
@@ -12356,7 +12380,7 @@
         <v>15</v>
       </c>
       <c r="X17" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
@@ -12479,7 +12503,7 @@
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="s" s="30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18" s="31">
         <f>(COUNTA(C18:AG18)-COUNTIF(C18:AG18,"リ"))*8</f>
@@ -12500,7 +12524,7 @@
         <v>15</v>
       </c>
       <c r="I18" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s" s="33">
         <v>15</v>
@@ -12517,7 +12541,7 @@
         <v>15</v>
       </c>
       <c r="P18" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Q18" t="s" s="33">
         <v>15</v>
@@ -12534,7 +12558,7 @@
         <v>15</v>
       </c>
       <c r="W18" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="X18" t="s" s="33">
         <v>15</v>
@@ -12551,7 +12575,7 @@
         <v>15</v>
       </c>
       <c r="AD18" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
@@ -12567,7 +12591,7 @@
       <c r="AJ18" s="19"/>
       <c r="AK18" s="15"/>
       <c r="AL18" t="s" s="30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AM18" s="31">
         <f>(COUNTA(AN18:BR18)-COUNTIF(AN18:BR18,"リ"))*8</f>
@@ -12839,7 +12863,7 @@
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="s" s="30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" s="31">
         <f>(COUNTA(C20:AG20)-COUNTIF(C20:AG20,"リ"))*8</f>
@@ -12925,7 +12949,7 @@
       <c r="AJ20" s="19"/>
       <c r="AK20" s="15"/>
       <c r="AL20" t="s" s="30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM20" s="31">
         <f>(COUNTA(AN20:BR20)-COUNTIF(AN20:BR20,"リ"))*8</f>
@@ -13199,7 +13223,7 @@
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="s" s="30">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22" s="31">
         <f>(COUNTA(C22:AG22)-COUNTIF(C22:AG22,"リ"))*8</f>
@@ -13285,7 +13309,7 @@
       <c r="AJ22" s="19"/>
       <c r="AK22" s="15"/>
       <c r="AL22" t="s" s="30">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AM22" s="31">
         <f>(COUNTA(AN22:BR22)-COUNTIF(AN22:BR22,"リ"))*8</f>
@@ -13380,7 +13404,7 @@
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="s" s="30">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B23" s="31">
         <f>(COUNTA(C23:AG23)-COUNTIF(C23:AG23,"リ"))*8</f>
@@ -13401,7 +13425,7 @@
         <v>15</v>
       </c>
       <c r="I23" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J23" t="s" s="33">
         <v>15</v>
@@ -13418,7 +13442,7 @@
         <v>15</v>
       </c>
       <c r="P23" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Q23" t="s" s="33">
         <v>15</v>
@@ -13433,7 +13457,7 @@
         <v>15</v>
       </c>
       <c r="W23" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="X23" t="s" s="33">
         <v>15</v>
@@ -13450,7 +13474,7 @@
         <v>15</v>
       </c>
       <c r="AD23" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
@@ -13466,7 +13490,7 @@
       <c r="AJ23" s="19"/>
       <c r="AK23" s="15"/>
       <c r="AL23" t="s" s="30">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AM23" s="31">
         <f>(COUNTA(AN23:BR23)-COUNTIF(AN23:BR23,"リ"))*8</f>
@@ -13635,7 +13659,7 @@
     <row r="25" ht="19.5" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" t="s" s="3">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -13674,7 +13698,7 @@
       <c r="AK25" s="7"/>
       <c r="AL25" s="5"/>
       <c r="AM25" t="s" s="3">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AN25" s="4"/>
       <c r="AO25" s="4"/>
@@ -14352,7 +14376,7 @@
       <c r="R29" s="32"/>
       <c r="S29" s="32"/>
       <c r="T29" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U29" t="s" s="33">
         <v>15</v>
@@ -14468,7 +14492,7 @@
         <v>15</v>
       </c>
       <c r="BO29" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP29" s="32"/>
       <c r="BQ29" s="32"/>
@@ -14485,7 +14509,7 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" t="s" s="30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B30" s="31">
         <f>(COUNTA(C30:AG30)-COUNTIF(C30:AG30,"リ"))*8</f>
@@ -14575,7 +14599,7 @@
       <c r="AJ30" s="19"/>
       <c r="AK30" s="15"/>
       <c r="AL30" t="s" s="30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AM30" s="31">
         <f>(COUNTA(AN30:BR30)-COUNTIF(AN30:BR30,"リ"))*8</f>
@@ -14596,7 +14620,7 @@
         <v>15</v>
       </c>
       <c r="AT30" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AU30" s="32"/>
       <c r="AV30" s="32"/>
@@ -14613,7 +14637,7 @@
         <v>15</v>
       </c>
       <c r="BA30" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BB30" s="32"/>
       <c r="BC30" s="32"/>
@@ -14630,7 +14654,7 @@
         <v>15</v>
       </c>
       <c r="BH30" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BI30" s="32"/>
       <c r="BJ30" s="32"/>
@@ -14647,7 +14671,7 @@
         <v>15</v>
       </c>
       <c r="BO30" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BP30" s="32"/>
       <c r="BQ30" s="32"/>
@@ -14841,7 +14865,7 @@
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="s" s="30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B32" s="31">
         <f>(COUNTA(C32:AG32)-COUNTIF(C32:AG32,"リ"))*8</f>
@@ -14933,7 +14957,7 @@
       <c r="AJ32" s="19"/>
       <c r="AK32" s="15"/>
       <c r="AL32" t="s" s="30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM32" s="31">
         <f>(COUNTA(AN32:BR32)-COUNTIF(AN32:BR32,"リ"))*8</f>
@@ -14942,70 +14966,70 @@
       <c r="AN32" s="32"/>
       <c r="AO32" s="32"/>
       <c r="AP32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AQ32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AR32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AS32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AT32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AU32" s="32"/>
       <c r="AV32" s="32"/>
       <c r="AW32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AX32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AY32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AZ32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="BA32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="BB32" s="32"/>
       <c r="BC32" s="32"/>
       <c r="BD32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="BE32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="BF32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="BG32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="BH32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="BI32" s="32"/>
       <c r="BJ32" s="32"/>
       <c r="BK32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="BL32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="BM32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="BN32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="BO32" t="s" s="33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="BP32" s="32"/>
       <c r="BQ32" s="32"/>
@@ -15035,7 +15059,7 @@
         <v>15</v>
       </c>
       <c r="G33" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H33" t="s" s="33">
         <v>15</v>
@@ -15052,7 +15076,7 @@
         <v>15</v>
       </c>
       <c r="N33" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O33" t="s" s="33">
         <v>15</v>
@@ -15069,7 +15093,7 @@
         <v>15</v>
       </c>
       <c r="U33" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="V33" t="s" s="33">
         <v>15</v>
@@ -15086,7 +15110,7 @@
         <v>15</v>
       </c>
       <c r="AB33" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AC33" t="s" s="33">
         <v>15</v>
@@ -15201,7 +15225,7 @@
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="s" s="30">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B34" s="31">
         <f>(COUNTA(C34:AG34)-COUNTIF(C34:AG34,"リ"))*8</f>
@@ -15291,7 +15315,7 @@
       <c r="AJ34" s="19"/>
       <c r="AK34" s="15"/>
       <c r="AL34" t="s" s="30">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AM34" s="31">
         <f>(COUNTA(AN34:BR34)-COUNTIF(AN34:BR34,"リ"))*8</f>
@@ -15380,7 +15404,7 @@
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="s" s="30">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B35" s="31">
         <f>(COUNTA(C35:AG35)-COUNTIF(C35:AG35,"リ"))*8</f>
@@ -15395,7 +15419,7 @@
         <v>15</v>
       </c>
       <c r="G35" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s" s="33">
         <v>15</v>
@@ -15412,7 +15436,7 @@
         <v>15</v>
       </c>
       <c r="N35" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O35" t="s" s="33">
         <v>15</v>
@@ -15429,7 +15453,7 @@
         <v>15</v>
       </c>
       <c r="U35" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="V35" t="s" s="33">
         <v>15</v>
@@ -15446,7 +15470,7 @@
         <v>15</v>
       </c>
       <c r="AB35" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AC35" t="s" s="33">
         <v>15</v>
@@ -15470,7 +15494,7 @@
       <c r="AJ35" s="19"/>
       <c r="AK35" s="15"/>
       <c r="AL35" t="s" s="30">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AM35" s="31">
         <f>(COUNTA(AN35:BR35)-COUNTIF(AN35:BR35,"リ"))*8</f>
@@ -15491,7 +15515,7 @@
         <v>15</v>
       </c>
       <c r="AT35" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AU35" s="32"/>
       <c r="AV35" s="32"/>
@@ -15508,7 +15532,7 @@
         <v>15</v>
       </c>
       <c r="BA35" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BB35" s="32"/>
       <c r="BC35" s="32"/>
@@ -15525,7 +15549,7 @@
         <v>15</v>
       </c>
       <c r="BH35" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BI35" s="32"/>
       <c r="BJ35" s="32"/>
@@ -15542,7 +15566,7 @@
         <v>15</v>
       </c>
       <c r="BO35" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BP35" s="32"/>
       <c r="BQ35" s="32"/>
@@ -15638,7 +15662,7 @@
       <c r="C37" s="46"/>
       <c r="D37" s="47"/>
       <c r="E37" t="s" s="48">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F37" s="49"/>
       <c r="G37" s="49"/>
@@ -15673,14 +15697,14 @@
       <c r="AJ37" s="7"/>
       <c r="AK37" s="46"/>
       <c r="AL37" t="s" s="16">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AM37" t="s" s="50">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AN37" s="51"/>
       <c r="AO37" t="s" s="50">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AP37" s="52"/>
       <c r="AQ37" s="51"/>
@@ -15699,7 +15723,7 @@
       <c r="BD37" s="46"/>
       <c r="BE37" s="47"/>
       <c r="BF37" t="s" s="48">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="BG37" s="49"/>
       <c r="BH37" s="49"/>
@@ -15722,14 +15746,14 @@
       <c r="B38" s="7"/>
       <c r="C38" s="46"/>
       <c r="D38" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s" s="48">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" t="s" s="54">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -15787,14 +15811,14 @@
       <c r="BC38" s="7"/>
       <c r="BD38" s="46"/>
       <c r="BE38" t="s" s="37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BF38" t="s" s="48">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="BG38" s="7"/>
       <c r="BH38" t="s" s="54">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="BI38" s="7"/>
       <c r="BJ38" s="7"/>
@@ -15815,10 +15839,10 @@
       <c r="B39" s="7"/>
       <c r="C39" s="46"/>
       <c r="D39" t="s" s="60">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s" s="48">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -15853,7 +15877,7 @@
       <c r="AJ39" s="7"/>
       <c r="AK39" s="46"/>
       <c r="AL39" t="s" s="30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM39" s="55">
         <f>AH5+AH17+AH29+BS5+BS17+BS29</f>
@@ -15880,10 +15904,10 @@
       <c r="BC39" s="7"/>
       <c r="BD39" s="46"/>
       <c r="BE39" t="s" s="60">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="BF39" t="s" s="48">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="BG39" s="7"/>
       <c r="BH39" s="7"/>
@@ -15906,10 +15930,10 @@
       <c r="B40" s="7"/>
       <c r="C40" s="46"/>
       <c r="D40" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s" s="48">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -15944,7 +15968,7 @@
       <c r="AJ40" s="7"/>
       <c r="AK40" s="46"/>
       <c r="AL40" t="s" s="30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM40" s="55">
         <f>AH6+AH18+AH30+BS6+BS18+BS30</f>
@@ -15971,10 +15995,10 @@
       <c r="BC40" s="7"/>
       <c r="BD40" s="46"/>
       <c r="BE40" t="s" s="61">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="BF40" t="s" s="48">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="BG40" s="7"/>
       <c r="BH40" s="7"/>
@@ -15997,10 +16021,10 @@
       <c r="B41" s="7"/>
       <c r="C41" s="46"/>
       <c r="D41" t="s" s="40">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E41" t="s" s="48">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -16035,7 +16059,7 @@
       <c r="AJ41" s="7"/>
       <c r="AK41" s="46"/>
       <c r="AL41" t="s" s="30">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="AM41" s="55">
         <f>AH7+AH19+AH31+BS7+BS19+BS31</f>
@@ -16062,10 +16086,10 @@
       <c r="BC41" s="7"/>
       <c r="BD41" s="46"/>
       <c r="BE41" t="s" s="40">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BF41" t="s" s="48">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="BG41" s="7"/>
       <c r="BH41" s="7"/>
@@ -16088,10 +16112,10 @@
       <c r="B42" s="7"/>
       <c r="C42" s="62"/>
       <c r="D42" t="s" s="38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s" s="48">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -16126,7 +16150,7 @@
       <c r="AJ42" s="7"/>
       <c r="AK42" s="46"/>
       <c r="AL42" t="s" s="30">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AM42" s="55">
         <f>AH8+AH20+AH32+BS8+BS20+BS32</f>
@@ -16153,10 +16177,10 @@
       <c r="BC42" s="7"/>
       <c r="BD42" s="46"/>
       <c r="BE42" t="s" s="38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BF42" t="s" s="48">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="BG42" s="7"/>
       <c r="BH42" s="7"/>
@@ -16178,13 +16202,13 @@
       <c r="A43" s="7"/>
       <c r="B43" s="46"/>
       <c r="C43" t="s" s="63">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s" s="36">
         <v>15</v>
       </c>
       <c r="E43" t="s" s="48">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -16219,7 +16243,7 @@
       <c r="AJ43" s="7"/>
       <c r="AK43" s="46"/>
       <c r="AL43" t="s" s="30">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AM43" s="55">
         <f>AH9+AH21+AH33+BS9+BS21+BS33</f>
@@ -16249,7 +16273,7 @@
         <v>15</v>
       </c>
       <c r="BF43" t="s" s="48">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="BG43" s="7"/>
       <c r="BH43" s="7"/>
@@ -16272,10 +16296,10 @@
       <c r="B44" s="7"/>
       <c r="C44" s="64"/>
       <c r="D44" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E44" t="s" s="48">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -16310,7 +16334,7 @@
       <c r="AJ44" s="7"/>
       <c r="AK44" s="46"/>
       <c r="AL44" t="s" s="30">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AM44" s="55">
         <f>AH10+AH22+AH34+BS10+BS22+BS34</f>
@@ -16337,10 +16361,10 @@
       <c r="BC44" s="7"/>
       <c r="BD44" s="46"/>
       <c r="BE44" t="s" s="36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BF44" t="s" s="48">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="BG44" s="7"/>
       <c r="BH44" s="7"/>
@@ -16363,10 +16387,10 @@
       <c r="B45" s="7"/>
       <c r="C45" s="46"/>
       <c r="D45" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E45" t="s" s="48">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -16401,7 +16425,7 @@
       <c r="AJ45" s="7"/>
       <c r="AK45" s="46"/>
       <c r="AL45" t="s" s="30">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="AM45" s="55">
         <f>AH11+AH23+AH35+BS11+BS23+BS35</f>
@@ -16428,10 +16452,10 @@
       <c r="BC45" s="7"/>
       <c r="BD45" s="46"/>
       <c r="BE45" t="s" s="36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BF45" t="s" s="48">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="BG45" s="7"/>
       <c r="BH45" s="7"/>
@@ -16451,61 +16475,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="AM39:AN39"/>
-    <mergeCell ref="BS26:BS27"/>
-    <mergeCell ref="AM13:BR13"/>
-    <mergeCell ref="BU26:BU27"/>
-    <mergeCell ref="AM40:AN40"/>
-    <mergeCell ref="AO43:AQ43"/>
+    <mergeCell ref="AM1:BR1"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B13:AG13"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="B25:AG25"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="BU14:BU15"/>
+    <mergeCell ref="AO45:AQ45"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="AL37:AL38"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AI26:AI27"/>
+    <mergeCell ref="AM25:BR25"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="AJ26:AJ27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AO38:AQ38"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="AO42:AQ42"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="BT2:BT3"/>
+    <mergeCell ref="AM37:AN37"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AO40:AQ40"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="AM26:AM27"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="BT14:BT15"/>
+    <mergeCell ref="AO44:AQ44"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AO39:AQ39"/>
+    <mergeCell ref="B1:AG1"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="BT26:BT27"/>
+    <mergeCell ref="AM43:AN43"/>
     <mergeCell ref="AI14:AI15"/>
     <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM45:AN45"/>
+    <mergeCell ref="AO37:AQ37"/>
     <mergeCell ref="BS14:BS15"/>
-    <mergeCell ref="AO37:AQ37"/>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AM43:AN43"/>
-    <mergeCell ref="BT26:BT27"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="B1:AG1"/>
-    <mergeCell ref="AO39:AQ39"/>
-    <mergeCell ref="AO44:AQ44"/>
-    <mergeCell ref="BT14:BT15"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AM26:AM27"/>
-    <mergeCell ref="AO40:AQ40"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AM37:AN37"/>
-    <mergeCell ref="BT2:BT3"/>
-    <mergeCell ref="AO42:AQ42"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="AO38:AQ38"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AJ26:AJ27"/>
-    <mergeCell ref="AM14:AM15"/>
-    <mergeCell ref="AM25:BR25"/>
-    <mergeCell ref="AI26:AI27"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="AL37:AL38"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="AO45:AQ45"/>
-    <mergeCell ref="BU14:BU15"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="B25:AG25"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="B13:AG13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="AM1:BR1"/>
+    <mergeCell ref="AO43:AQ43"/>
+    <mergeCell ref="AM40:AN40"/>
+    <mergeCell ref="BU26:BU27"/>
+    <mergeCell ref="AM13:BR13"/>
+    <mergeCell ref="BS26:BS27"/>
+    <mergeCell ref="AM39:AN39"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B11 AM4:AM11 B16:B23 AM16:AM23 B28:B35 AM28:AM35">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan" stopIfTrue="1">
